--- a/최종산출물/4팀_PSP_최종.xlsx
+++ b/최종산출물/4팀_PSP_최종.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\지환\Documents\GitHub\FiillingGood\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\filling-good\최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9999DF3-9C3A-4365-839D-FB329C7C8C3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE748C39-27CC-4A05-9B88-BC874FD80BD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3510" windowWidth="20640" windowHeight="16110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="총합" sheetId="1" r:id="rId1"/>
@@ -1483,7 +1483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="229">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -4367,6 +4367,316 @@
   <si>
     <t>최종 산출물 취합</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겹치는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판단하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잡기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>일정등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존일정과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>겹치는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판단하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5206,13 +5516,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="11.85" customHeight="1">
@@ -5243,7 +5553,7 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6" ht="11.85" customHeight="1"/>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="25.5">
+    <row r="5" spans="1:6" s="10" customFormat="1" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5544,7 +5854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5561,7 +5871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5578,7 +5888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5595,7 +5905,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5612,7 +5922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5629,7 +5939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5646,7 +5956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5666,11 +5976,11 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5690,7 +6000,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -5708,7 +6018,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -5728,7 +6038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -5748,7 +6058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13">
         <v>43735</v>
       </c>
@@ -5768,7 +6078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13">
         <v>43742</v>
       </c>
@@ -5788,7 +6098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="13">
         <v>43743</v>
       </c>
@@ -5808,7 +6118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13">
         <v>43744</v>
       </c>
@@ -5868,7 +6178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13">
         <v>43776</v>
       </c>
@@ -5888,7 +6198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13">
         <v>43778</v>
       </c>
@@ -5908,7 +6218,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13">
         <v>43781</v>
       </c>
@@ -5928,7 +6238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13">
         <v>43782</v>
       </c>
@@ -5948,7 +6258,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13">
         <v>43791</v>
       </c>
@@ -5968,7 +6278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13">
         <v>43792</v>
       </c>
@@ -5988,7 +6298,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13">
         <v>43793</v>
       </c>
@@ -6008,7 +6318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13">
         <v>43794</v>
       </c>
@@ -6028,7 +6338,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13">
         <v>43795</v>
       </c>
@@ -6048,7 +6358,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13">
         <v>43796</v>
       </c>
@@ -6068,7 +6378,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13">
         <v>43797</v>
       </c>
@@ -6088,7 +6398,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13">
         <v>43800</v>
       </c>
@@ -6108,7 +6418,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13">
         <v>43801</v>
       </c>
@@ -6128,7 +6438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43804</v>
       </c>
@@ -6148,7 +6458,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43805</v>
       </c>
@@ -6168,7 +6478,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13">
         <v>43806</v>
       </c>
@@ -6188,7 +6498,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13">
         <v>43807</v>
       </c>
@@ -6208,7 +6518,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13">
         <v>43807</v>
       </c>
@@ -6228,7 +6538,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="13">
         <v>43807</v>
       </c>
@@ -6248,7 +6558,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13">
         <v>43808</v>
       </c>
@@ -6268,7 +6578,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="13">
         <v>43808</v>
       </c>
@@ -6288,7 +6598,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13">
         <v>43808</v>
       </c>
@@ -6308,7 +6618,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13">
         <v>43809</v>
       </c>
@@ -6371,11 +6681,11 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6395,7 +6705,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6723,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -6433,7 +6743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
@@ -6453,7 +6763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
@@ -6473,7 +6783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
@@ -6493,7 +6803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -6513,7 +6823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="13" t="s">
         <v>62</v>
       </c>
@@ -6534,7 +6844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -6574,7 +6884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -6594,7 +6904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -6614,7 +6924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
@@ -6634,7 +6944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
@@ -6694,7 +7004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -6714,7 +7024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
@@ -6734,7 +7044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
@@ -6754,7 +7064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.25">
+    <row r="22" spans="1:6" ht="28.8">
       <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
@@ -6774,7 +7084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
@@ -6794,7 +7104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -6814,7 +7124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
@@ -6834,7 +7144,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13" t="s">
         <v>104</v>
       </c>
@@ -6854,7 +7164,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13" t="s">
         <v>104</v>
       </c>
@@ -6874,7 +7184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="13" t="s">
         <v>108</v>
       </c>
@@ -6894,7 +7204,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="13" t="s">
         <v>114</v>
       </c>
@@ -6914,7 +7224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="13" t="s">
         <v>115</v>
       </c>
@@ -6994,7 +7304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
@@ -7014,7 +7324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="13" t="s">
         <v>123</v>
       </c>
@@ -7034,7 +7344,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="27">
+    <row r="36" spans="1:6" ht="31.2">
       <c r="A36" s="13" t="s">
         <v>135</v>
       </c>
@@ -7054,7 +7364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3" t="s">
         <v>156</v>
       </c>
@@ -7074,7 +7384,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="38" t="s">
         <v>157</v>
       </c>
@@ -7114,7 +7424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="27">
+    <row r="40" spans="1:6" ht="31.2">
       <c r="A40" s="46" t="s">
         <v>163</v>
       </c>
@@ -7134,7 +7444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5">
+    <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="48" t="s">
         <v>173</v>
       </c>
@@ -7154,7 +7464,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5">
+    <row r="42" spans="1:6" ht="15.6">
       <c r="A42" s="49" t="s">
         <v>175</v>
       </c>
@@ -7174,7 +7484,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27">
+    <row r="43" spans="1:6" ht="31.2">
       <c r="A43" s="60" t="s">
         <v>212</v>
       </c>
@@ -7249,15 +7559,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7277,7 +7587,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -7295,7 +7605,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -7315,7 +7625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -7335,7 +7645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -7355,7 +7665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
@@ -7375,7 +7685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -7396,7 +7706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -7416,7 +7726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
@@ -7436,7 +7746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
@@ -7456,7 +7766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
@@ -7477,7 +7787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="13" t="s">
         <v>73</v>
       </c>
@@ -7497,7 +7807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>75</v>
       </c>
@@ -7517,7 +7827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="13" t="s">
         <v>85</v>
       </c>
@@ -7537,7 +7847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -7557,7 +7867,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>87</v>
       </c>
@@ -7577,7 +7887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
@@ -7597,7 +7907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>87</v>
       </c>
@@ -7617,7 +7927,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
@@ -7637,7 +7947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>100</v>
       </c>
@@ -7658,7 +7968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13" t="s">
         <v>110</v>
       </c>
@@ -7678,7 +7988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="13" t="s">
         <v>112</v>
       </c>
@@ -7699,7 +8009,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -7719,7 +8029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -7739,7 +8049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -7759,7 +8069,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6" ht="13.8">
       <c r="A28" s="13" t="s">
         <v>133</v>
       </c>
@@ -7779,7 +8089,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6" ht="13.8">
       <c r="A29" s="13" t="s">
         <v>137</v>
       </c>
@@ -7799,7 +8109,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6" ht="13.8">
       <c r="A30" s="13" t="s">
         <v>138</v>
       </c>
@@ -7819,7 +8129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>141</v>
       </c>
@@ -7839,7 +8149,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="13" t="s">
         <v>149</v>
       </c>
@@ -7859,7 +8169,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6" ht="13.8">
       <c r="A33" s="3" t="s">
         <v>151</v>
       </c>
@@ -7879,7 +8189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>154</v>
       </c>
@@ -7899,7 +8209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -7919,7 +8229,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6" ht="13.8">
       <c r="A36" s="13" t="s">
         <v>171</v>
       </c>
@@ -7939,7 +8249,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="13" t="s">
         <v>210</v>
       </c>
@@ -7959,7 +8269,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15">
+    <row r="38" spans="1:6" ht="13.8">
       <c r="A38" s="13" t="s">
         <v>214</v>
       </c>
@@ -7979,7 +8289,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15">
+    <row r="39" spans="1:6" ht="13.8">
       <c r="A39" s="3" t="s">
         <v>216</v>
       </c>
@@ -7999,7 +8309,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15">
+    <row r="40" spans="1:6" ht="13.8">
       <c r="A40" s="3" t="s">
         <v>223</v>
       </c>
@@ -8033,16 +8343,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8062,7 +8372,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8080,7 +8390,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8100,7 +8410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="13">
         <v>43733</v>
       </c>
@@ -8248,7 +8558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="13">
         <v>43741</v>
       </c>
@@ -8311,7 +8621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="43" t="s">
         <v>198</v>
       </c>
@@ -8332,7 +8642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="13" t="s">
         <v>199</v>
       </c>
@@ -8353,7 +8663,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>200</v>
       </c>
@@ -8374,7 +8684,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="43" t="s">
         <v>202</v>
       </c>
@@ -8395,7 +8705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>203</v>
       </c>
@@ -8416,7 +8726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>201</v>
       </c>
@@ -8437,7 +8747,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="43" t="s">
         <v>204</v>
       </c>
@@ -8458,7 +8768,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="43" t="s">
         <v>205</v>
       </c>
@@ -8479,7 +8789,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="43" t="s">
         <v>205</v>
       </c>
@@ -8500,7 +8810,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="43">
         <v>43770</v>
       </c>
@@ -8521,7 +8831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="13">
         <v>43771</v>
       </c>
@@ -8542,7 +8852,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="13">
         <v>43771</v>
       </c>
@@ -8563,7 +8873,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="43">
         <v>43772</v>
       </c>
@@ -8605,7 +8915,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="43">
         <v>43778</v>
       </c>
@@ -8626,7 +8936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="13.8">
       <c r="A31" s="13" t="s">
         <v>206</v>
       </c>
@@ -8647,7 +8957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="13.8">
       <c r="A32" s="13" t="s">
         <v>206</v>
       </c>
@@ -8668,7 +8978,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>207</v>
       </c>
@@ -8689,7 +8999,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="13.8">
       <c r="A34" s="13" t="s">
         <v>208</v>
       </c>
@@ -8710,7 +9020,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="13.8">
       <c r="A35" s="13" t="s">
         <v>209</v>
       </c>
@@ -8731,7 +9041,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5">
+    <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="13">
         <v>43800</v>
       </c>
@@ -8794,7 +9104,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5">
+    <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="13">
         <v>43806</v>
       </c>
@@ -8834,6 +9144,46 @@
       </c>
       <c r="F40" s="3" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="D41" s="39">
+        <v>0</v>
+      </c>
+      <c r="E41" s="39">
+        <v>50</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D42" s="39">
+        <v>0</v>
+      </c>
+      <c r="E42" s="39">
+        <v>90</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -8855,10 +9205,10 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8878,7 +9228,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="13.8">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8896,7 +9246,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="26.4">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -8916,7 +9266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -8936,7 +9286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
@@ -8956,7 +9306,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="13" t="s">
         <v>67</v>
       </c>
@@ -8976,7 +9326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="13" t="s">
         <v>62</v>
       </c>
@@ -8997,7 +9347,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -9017,7 +9367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
@@ -9037,7 +9387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
@@ -9077,7 +9427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="13" t="s">
         <v>85</v>
       </c>
@@ -9097,7 +9447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="13" t="s">
         <v>97</v>
       </c>
@@ -9117,7 +9467,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="13" t="s">
         <v>144</v>
       </c>
@@ -9137,7 +9487,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="13" t="s">
         <v>118</v>
       </c>
@@ -9157,7 +9507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="13" t="s">
         <v>120</v>
       </c>
@@ -9177,7 +9527,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="13" t="s">
         <v>146</v>
       </c>
@@ -9197,7 +9547,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="13" t="s">
         <v>147</v>
       </c>
@@ -9217,7 +9567,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="13" t="s">
         <v>167</v>
       </c>
@@ -9237,7 +9587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="13" t="s">
         <v>169</v>
       </c>
@@ -9257,7 +9607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -9420,7 +9770,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9437,7 +9787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9454,7 +9804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
